--- a/updated_filtered_data_with_lengths_body-all.xlsx
+++ b/updated_filtered_data_with_lengths_body-all.xlsx
@@ -756,7 +756,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a51c</t>
+          <t>67ceb73847361997ddc3c691</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a51a</t>
+          <t>67ceb73847361997ddc3c68f</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a51e</t>
+          <t>67ceb73847361997ddc3c693</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a368</t>
+          <t>67ceb73547361997ddc3c4dd</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a36c</t>
+          <t>67ceb73547361997ddc3c4e1</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a36a</t>
+          <t>67ceb73547361997ddc3c4df</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67cd3473ebee1dc3d760a36e</t>
+          <t>67ceb73547361997ddc3c4e3</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a632</t>
+          <t>67ceb73947361997ddc3c7a7</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a634</t>
+          <t>67ceb73947361997ddc3c7a9</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a636</t>
+          <t>67ceb73947361997ddc3c7ab</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a784</t>
+          <t>67ceb73c47361997ddc3c8f9</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a782</t>
+          <t>67ceb73c47361997ddc3c8f7</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4ed</t>
+          <t>67ceb73747361997ddc3c662</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4f1</t>
+          <t>67ceb73747361997ddc3c666</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4eb</t>
+          <t>67ceb73747361997ddc3c660</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67cd347debee1dc3d760a4ef</t>
+          <t>67ceb73747361997ddc3c664</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67cd3486ebee1dc3d760a68c</t>
+          <t>67ceb73a47361997ddc3c801</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67cd3486ebee1dc3d760a68e</t>
+          <t>67ceb73a47361997ddc3c803</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67cd3476ebee1dc3d760a3ea</t>
+          <t>67ceb73647361997ddc3c55f</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67cd3476ebee1dc3d760a3e8</t>
+          <t>67ceb73647361997ddc3c55d</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67cd3476ebee1dc3d760a3e6</t>
+          <t>67ceb73647361997ddc3c55b</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67cd346febee1dc3d760a318</t>
+          <t>67ceb73347361997ddc3c48d</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67cd346febee1dc3d760a31a</t>
+          <t>67ceb73347361997ddc3c48f</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67cd346febee1dc3d760a31c</t>
+          <t>67ceb73347361997ddc3c491</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67cd347bebee1dc3d760a4be</t>
+          <t>67ceb73747361997ddc3c633</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67cd347bebee1dc3d760a4bc</t>
+          <t>67ceb73747361997ddc3c631</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67cd347bebee1dc3d760a4c2</t>
+          <t>67ceb73747361997ddc3c637</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a578</t>
+          <t>67ceb73847361997ddc3c6ed</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a57c</t>
+          <t>67ceb73847361997ddc3c6f1</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a582</t>
+          <t>67ceb73847361997ddc3c6f7</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a57a</t>
+          <t>67ceb73847361997ddc3c6ef</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67cd3480ebee1dc3d760a57e</t>
+          <t>67ceb73847361997ddc3c6f3</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a3a8</t>
+          <t>67ceb73547361997ddc3c51d</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a3aa</t>
+          <t>67ceb73547361997ddc3c51f</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a3aa</t>
+          <t>67ceb73547361997ddc3c51f</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a545</t>
+          <t>67ceb73847361997ddc3c6ba</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a541</t>
+          <t>67ceb73847361997ddc3c6b6</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a53d</t>
+          <t>67ceb73847361997ddc3c6b2</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a53f</t>
+          <t>67ceb73847361997ddc3c6b4</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67cd347eebee1dc3d760a543</t>
+          <t>67ceb73847361997ddc3c6b8</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a657</t>
+          <t>67ceb73a47361997ddc3c7cc</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a653</t>
+          <t>67ceb73a47361997ddc3c7c8</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a655</t>
+          <t>67ceb73a47361997ddc3c7ca</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67cd3485ebee1dc3d760a651</t>
+          <t>67ceb73a47361997ddc3c7c6</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c0</t>
+          <t>67ceb73947361997ddc3c735</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c2</t>
+          <t>67ceb73947361997ddc3c737</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c6</t>
+          <t>67ceb73947361997ddc3c73b</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67cd3482ebee1dc3d760a5c4</t>
+          <t>67ceb73947361997ddc3c739</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a393</t>
+          <t>67ceb73547361997ddc3c508</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67cd3474ebee1dc3d760a395</t>
+          <t>67ceb73547361997ddc3c50a</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a797</t>
+          <t>67ceb73c47361997ddc3c90c</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a799</t>
+          <t>67ceb73c47361997ddc3c90e</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67cd348cebee1dc3d760a79b</t>
+          <t>67ceb73c47361997ddc3c910</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67cd3483ebee1dc3d760a606</t>
+          <t>67ceb73947361997ddc3c77b</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67cd3483ebee1dc3d760a602</t>
+          <t>67ceb73947361997ddc3c777</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67cd3483ebee1dc3d760a600</t>
+          <t>67ceb73947361997ddc3c775</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e2</t>
+          <t>67ceb73a47361997ddc3c857</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e0</t>
+          <t>67ceb73a47361997ddc3c855</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e4</t>
+          <t>67ceb73a47361997ddc3c859</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6e6</t>
+          <t>67ceb73a47361997ddc3c85b</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67cd3478ebee1dc3d760a434</t>
+          <t>67ceb73647361997ddc3c5a9</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67cd3478ebee1dc3d760a436</t>
+          <t>67ceb73647361997ddc3c5ab</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67cd3478ebee1dc3d760a432</t>
+          <t>67ceb73647361997ddc3c5a7</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a46e</t>
+          <t>67ceb73747361997ddc3c5e3</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a472</t>
+          <t>67ceb73747361997ddc3c5e7</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a457</t>
+          <t>67ceb73647361997ddc3c5cc</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67cd3479ebee1dc3d760a455</t>
+          <t>67ceb73647361997ddc3c5ca</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67cd3489ebee1dc3d760a71b</t>
+          <t>67ceb73b47361997ddc3c890</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67cd3489ebee1dc3d760a717</t>
+          <t>67ceb73b47361997ddc3c88c</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67cd3489ebee1dc3d760a713</t>
+          <t>67ceb73b47361997ddc3c888</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a48f</t>
+          <t>67ceb73747361997ddc3c604</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a48b</t>
+          <t>67ceb73747361997ddc3c600</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a491</t>
+          <t>67ceb73747361997ddc3c606</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67cd347aebee1dc3d760a48d</t>
+          <t>67ceb73747361997ddc3c602</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a80b</t>
+          <t>67ceb73d47361997ddc3c980</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a80f</t>
+          <t>67ceb73d47361997ddc3c984</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a80d</t>
+          <t>67ceb73d47361997ddc3c982</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67cd3490ebee1dc3d760a811</t>
+          <t>67ceb73d47361997ddc3c986</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67cd3477ebee1dc3d760a41a</t>
+          <t>67ceb73647361997ddc3c58f</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67cd3491ebee1dc3d760a838</t>
+          <t>67ceb73d47361997ddc3c9ad</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67cd3491ebee1dc3d760a836</t>
+          <t>67ceb73d47361997ddc3c9ab</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67cd3491ebee1dc3d760a83a</t>
+          <t>67ceb73d47361997ddc3c9af</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67cd3487ebee1dc3d760a6a5</t>
+          <t>67ceb73a47361997ddc3c81a</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67cd3487ebee1dc3d760a6a7</t>
+          <t>67ceb73a47361997ddc3c81c</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67cd3487ebee1dc3d760a6be</t>
+          <t>67ceb73a47361997ddc3c833</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67cd348debee1dc3d760a7b6</t>
+          <t>67ceb73c47361997ddc3c92b</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67cd3488ebee1dc3d760a6d5</t>
+          <t>67ceb73a47361997ddc3c84a</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67cd3475ebee1dc3d760a3cd</t>
+          <t>67ceb73647361997ddc3c542</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67cd3475ebee1dc3d760a3cb</t>
+          <t>67ceb73647361997ddc3c540</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a33f</t>
+          <t>67ceb73447361997ddc3c4b4</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15424,7 +15424,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a341</t>
+          <t>67ceb73447361997ddc3c4b6</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a33b</t>
+          <t>67ceb73447361997ddc3c4b0</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67cd3472ebee1dc3d760a33d</t>
+          <t>67ceb73447361997ddc3c4b2</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a753</t>
+          <t>67ceb73b47361997ddc3c8c8</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a755</t>
+          <t>67ceb73b47361997ddc3c8ca</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a759</t>
+          <t>67ceb73b47361997ddc3c8ce</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67cd348bebee1dc3d760a757</t>
+          <t>67ceb73b47361997ddc3c8cc</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67cd348aebee1dc3d760a740</t>
+          <t>67ceb73b47361997ddc3c8b5</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67cd348aebee1dc3d760a73e</t>
+          <t>67ceb73b47361997ddc3c8b3</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67cd3484ebee1dc3d760a621</t>
+          <t>67ceb73947361997ddc3c796</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7d6</t>
+          <t>67ceb73c47361997ddc3c94b</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7de</t>
+          <t>67ceb73c47361997ddc3c953</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7de</t>
+          <t>67ceb73c47361997ddc3c953</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7d8</t>
+          <t>67ceb73c47361997ddc3c94d</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17706,7 +17706,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67cd348febee1dc3d760a7da</t>
+          <t>67ceb73c47361997ddc3c94f</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67cd348eebee1dc3d760a7c5</t>
+          <t>67ceb73c47361997ddc3c93a</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67cd3492ebee1dc3d760a863</t>
+          <t>67ceb73d47361997ddc3c9d8</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -18195,7 +18195,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67cd3492ebee1dc3d760a861</t>
+          <t>67ceb73d47361997ddc3c9d6</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67cd3494ebee1dc3d760a8aa</t>
+          <t>67ceb73e47361997ddc3ca1f</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -18521,7 +18521,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67cd3494ebee1dc3d760a8ae</t>
+          <t>67ceb73e47361997ddc3ca23</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67cd3499ebee1dc3d760a98c</t>
+          <t>67ceb73f47361997ddc3cb01</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67cd3495ebee1dc3d760a8c3</t>
+          <t>67ceb73e47361997ddc3ca38</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67cd3496ebee1dc3d760a923</t>
+          <t>67ceb73f47361997ddc3ca98</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67cd3497ebee1dc3d760a940</t>
+          <t>67ceb73f47361997ddc3cab5</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19918,7 +19918,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67cd3496ebee1dc3d760a92e</t>
+          <t>67ceb73f47361997ddc3caa3</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>67cd3497ebee1dc3d760a950</t>
+          <t>67ceb73f47361997ddc3cac5</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>67cd3495ebee1dc3d760a8e5</t>
+          <t>67ceb73e47361997ddc3ca5a</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>67cd3498ebee1dc3d760a962</t>
+          <t>67ceb73f47361997ddc3cad7</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -20958,7 +20958,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>67cd3498ebee1dc3d760a96f</t>
+          <t>67ceb73f47361997ddc3cae4</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -21121,7 +21121,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67cd3494ebee1dc3d760a895</t>
+          <t>67ceb73e47361997ddc3ca0a</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -21284,7 +21284,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67cd3498ebee1dc3d760a97f</t>
+          <t>67ceb73f47361997ddc3caf4</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67cd3496ebee1dc3d760a90b</t>
+          <t>67ceb73f47361997ddc3ca80</t>
         </is>
       </c>
       <c r="W133" t="n">

--- a/updated_filtered_data_with_lengths_body-all.xlsx
+++ b/updated_filtered_data_with_lengths_body-all.xlsx
@@ -756,7 +756,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372979e3</t>
+          <t>67e036b8454164a56f356bd3</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372979e1</t>
+          <t>67e036b8454164a56f356bd1</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372979e5</t>
+          <t>67e036b8454164a56f356bd5</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c3729782f</t>
+          <t>67e036b8454164a56f356a1f</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297833</t>
+          <t>67e036b8454164a56f356a23</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297831</t>
+          <t>67e036b8454164a56f356a21</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297835</t>
+          <t>67e036b8454164a56f356a25</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297af9</t>
+          <t>67e036b9454164a56f356ce9</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297afb</t>
+          <t>67e036b9454164a56f356ceb</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297afd</t>
+          <t>67e036b9454164a56f356ced</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c4b</t>
+          <t>67e036b9454164a56f356e3b</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c49</t>
+          <t>67e036b9454164a56f356e39</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372979b4</t>
+          <t>67e036b8454164a56f356ba4</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372979b8</t>
+          <t>67e036b8454164a56f356ba8</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372979b2</t>
+          <t>67e036b8454164a56f356ba2</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372979b6</t>
+          <t>67e036b8454164a56f356ba6</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b53</t>
+          <t>67e036b9454164a56f356d43</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b55</t>
+          <t>67e036b9454164a56f356d45</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372978b1</t>
+          <t>67e036b8454164a56f356aa1</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372978af</t>
+          <t>67e036b8454164a56f356a9f</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372978ad</t>
+          <t>67e036b8454164a56f356a9d</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372977df</t>
+          <t>67e036b7454164a56f3569cf</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372977e1</t>
+          <t>67e036b7454164a56f3569d1</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372977e3</t>
+          <t>67e036b7454164a56f3569d3</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297985</t>
+          <t>67e036b8454164a56f356b75</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297983</t>
+          <t>67e036b8454164a56f356b73</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297989</t>
+          <t>67e036b8454164a56f356b79</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a3f</t>
+          <t>67e036b8454164a56f356c2f</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a43</t>
+          <t>67e036b8454164a56f356c33</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a49</t>
+          <t>67e036b8454164a56f356c39</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a41</t>
+          <t>67e036b8454164a56f356c31</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a45</t>
+          <t>67e036b8454164a56f356c35</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c3729786f</t>
+          <t>67e036b8454164a56f356a5f</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297871</t>
+          <t>67e036b8454164a56f356a61</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297871</t>
+          <t>67e036b8454164a56f356a61</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297a0c</t>
+          <t>67e036b8454164a56f356bfc</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297a08</t>
+          <t>67e036b8454164a56f356bf8</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297a04</t>
+          <t>67e036b8454164a56f356bf4</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297a06</t>
+          <t>67e036b8454164a56f356bf6</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297a0a</t>
+          <t>67e036b8454164a56f356bfa</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b1e</t>
+          <t>67e036b9454164a56f356d0e</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b1a</t>
+          <t>67e036b9454164a56f356d0a</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b1c</t>
+          <t>67e036b9454164a56f356d0c</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b18</t>
+          <t>67e036b9454164a56f356d08</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a87</t>
+          <t>67e036b8454164a56f356c77</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a89</t>
+          <t>67e036b8454164a56f356c79</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a8d</t>
+          <t>67e036b8454164a56f356c7d</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297a8b</t>
+          <t>67e036b8454164a56f356c7b</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c3729785a</t>
+          <t>67e036b8454164a56f356a4a</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c3729785c</t>
+          <t>67e036b8454164a56f356a4c</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c5e</t>
+          <t>67e036b9454164a56f356e4e</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c60</t>
+          <t>67e036b9454164a56f356e50</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c62</t>
+          <t>67e036b9454164a56f356e52</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297acd</t>
+          <t>67e036b9454164a56f356cbd</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ac9</t>
+          <t>67e036b9454164a56f356cb9</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ac7</t>
+          <t>67e036b9454164a56f356cb7</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ba9</t>
+          <t>67e036b9454164a56f356d99</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ba7</t>
+          <t>67e036b9454164a56f356d97</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297bab</t>
+          <t>67e036b9454164a56f356d9b</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297bad</t>
+          <t>67e036b9454164a56f356d9d</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372978fb</t>
+          <t>67e036b8454164a56f356aeb</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372978fd</t>
+          <t>67e036b8454164a56f356aed</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372978f9</t>
+          <t>67e036b8454164a56f356ae9</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297935</t>
+          <t>67e036b8454164a56f356b25</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297939</t>
+          <t>67e036b8454164a56f356b29</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c3729791e</t>
+          <t>67e036b8454164a56f356b0e</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c3729791c</t>
+          <t>67e036b8454164a56f356b0c</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297be2</t>
+          <t>67e036b9454164a56f356dd2</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297bde</t>
+          <t>67e036b9454164a56f356dce</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297bda</t>
+          <t>67e036b9454164a56f356dca</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297956</t>
+          <t>67e036b8454164a56f356b46</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297952</t>
+          <t>67e036b8454164a56f356b42</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297958</t>
+          <t>67e036b8454164a56f356b48</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297954</t>
+          <t>67e036b8454164a56f356b44</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297cd2</t>
+          <t>67e036b9454164a56f356ec2</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297cd6</t>
+          <t>67e036b9454164a56f356ec6</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297cd4</t>
+          <t>67e036b9454164a56f356ec4</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297cd8</t>
+          <t>67e036b9454164a56f356ec8</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c372978e1</t>
+          <t>67e036b8454164a56f356ad1</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297cff</t>
+          <t>67e036ba454164a56f356eef</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297cfd</t>
+          <t>67e036ba454164a56f356eed</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297d01</t>
+          <t>67e036ba454164a56f356ef1</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b6c</t>
+          <t>67e036b9454164a56f356d5c</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b6e</t>
+          <t>67e036b9454164a56f356d5e</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b85</t>
+          <t>67e036b9454164a56f356d75</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c7d</t>
+          <t>67e036b9454164a56f356e6d</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297b9c</t>
+          <t>67e036b9454164a56f356d8c</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297894</t>
+          <t>67e036b8454164a56f356a84</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297892</t>
+          <t>67e036b8454164a56f356a82</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297806</t>
+          <t>67e036b7454164a56f3569f6</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15424,7 +15424,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297808</t>
+          <t>67e036b7454164a56f3569f8</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297802</t>
+          <t>67e036b7454164a56f3569f2</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67d33048cdc8996c37297804</t>
+          <t>67e036b7454164a56f3569f4</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c1a</t>
+          <t>67e036b9454164a56f356e0a</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c1c</t>
+          <t>67e036b9454164a56f356e0c</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c20</t>
+          <t>67e036b9454164a56f356e10</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c1e</t>
+          <t>67e036b9454164a56f356e0e</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c07</t>
+          <t>67e036b9454164a56f356df7</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c05</t>
+          <t>67e036b9454164a56f356df5</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ae8</t>
+          <t>67e036b9454164a56f356cd8</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c9d</t>
+          <t>67e036b9454164a56f356e8d</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ca5</t>
+          <t>67e036b9454164a56f356e95</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ca5</t>
+          <t>67e036b9454164a56f356e95</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c9f</t>
+          <t>67e036b9454164a56f356e8f</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17706,7 +17706,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297ca1</t>
+          <t>67e036b9454164a56f356e91</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297c8c</t>
+          <t>67e036b9454164a56f356e7c</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297d2a</t>
+          <t>67e036ba454164a56f356f1a</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -18195,7 +18195,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297d28</t>
+          <t>67e036ba454164a56f356f18</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297d71</t>
+          <t>67e036ba454164a56f356f61</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -18521,7 +18521,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297d75</t>
+          <t>67e036ba454164a56f356f65</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297e53</t>
+          <t>67e036ba454164a56f357043</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297d8a</t>
+          <t>67e036ba454164a56f356f7a</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297dea</t>
+          <t>67e036ba454164a56f356fda</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297e07</t>
+          <t>67e036ba454164a56f356ff7</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19918,7 +19918,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297df5</t>
+          <t>67e036ba454164a56f356fe5</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297e17</t>
+          <t>67e036ba454164a56f357007</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297dac</t>
+          <t>67e036ba454164a56f356f9c</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297e29</t>
+          <t>67e036ba454164a56f357019</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -20958,7 +20958,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297e36</t>
+          <t>67e036ba454164a56f357026</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -21121,7 +21121,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67d33049cdc8996c37297d5c</t>
+          <t>67e036ba454164a56f356f4c</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -21284,7 +21284,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297e46</t>
+          <t>67e036ba454164a56f357036</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67d3304acdc8996c37297dd2</t>
+          <t>67e036ba454164a56f356fc2</t>
         </is>
       </c>
       <c r="W133" t="n">

--- a/updated_filtered_data_with_lengths_body-all.xlsx
+++ b/updated_filtered_data_with_lengths_body-all.xlsx
@@ -756,7 +756,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bd3</t>
+          <t>67e72c4acde4e894925703ff</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bd1</t>
+          <t>67e72c4acde4e894925703fd</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bd5</t>
+          <t>67e72c4acde4e89492570401</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a1f</t>
+          <t>67e72c49cde4e8949257024b</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a23</t>
+          <t>67e72c49cde4e8949257024f</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a21</t>
+          <t>67e72c49cde4e8949257024d</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a25</t>
+          <t>67e72c49cde4e89492570251</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ce9</t>
+          <t>67e72c4acde4e89492570515</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ceb</t>
+          <t>67e72c4acde4e89492570517</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ced</t>
+          <t>67e72c4acde4e89492570519</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e3b</t>
+          <t>67e72c4acde4e89492570667</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e39</t>
+          <t>67e72c4acde4e89492570665</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba4</t>
+          <t>67e72c49cde4e894925703d0</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba8</t>
+          <t>67e72c49cde4e894925703d4</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba2</t>
+          <t>67e72c49cde4e894925703ce</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ba6</t>
+          <t>67e72c49cde4e894925703d2</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d43</t>
+          <t>67e72c4acde4e8949257056f</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d45</t>
+          <t>67e72c4acde4e89492570571</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356aa1</t>
+          <t>67e72c49cde4e894925702cd</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a9f</t>
+          <t>67e72c49cde4e894925702cb</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a9d</t>
+          <t>67e72c49cde4e894925702c9</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569cf</t>
+          <t>67e72c48cde4e894925701fb</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569d1</t>
+          <t>67e72c48cde4e894925701fd</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569d3</t>
+          <t>67e72c48cde4e894925701ff</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b75</t>
+          <t>67e72c49cde4e894925703a1</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b73</t>
+          <t>67e72c49cde4e8949257039f</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b79</t>
+          <t>67e72c49cde4e894925703a5</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c2f</t>
+          <t>67e72c4acde4e8949257045b</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c33</t>
+          <t>67e72c4acde4e8949257045f</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c39</t>
+          <t>67e72c4acde4e89492570465</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c31</t>
+          <t>67e72c4acde4e8949257045d</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c35</t>
+          <t>67e72c4acde4e89492570461</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a5f</t>
+          <t>67e72c49cde4e8949257028b</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a61</t>
+          <t>67e72c49cde4e8949257028d</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a61</t>
+          <t>67e72c49cde4e8949257028d</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bfc</t>
+          <t>67e72c4acde4e89492570428</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bf8</t>
+          <t>67e72c4acde4e89492570424</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bf4</t>
+          <t>67e72c4acde4e89492570420</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bf6</t>
+          <t>67e72c4acde4e89492570422</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356bfa</t>
+          <t>67e72c4acde4e89492570426</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d0e</t>
+          <t>67e72c4acde4e8949257053a</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d0a</t>
+          <t>67e72c4acde4e89492570536</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d0c</t>
+          <t>67e72c4acde4e89492570538</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d08</t>
+          <t>67e72c4acde4e89492570534</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c77</t>
+          <t>67e72c4acde4e894925704a3</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c79</t>
+          <t>67e72c4acde4e894925704a5</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c7d</t>
+          <t>67e72c4acde4e894925704a9</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356c7b</t>
+          <t>67e72c4acde4e894925704a7</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a4a</t>
+          <t>67e72c49cde4e89492570276</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a4c</t>
+          <t>67e72c49cde4e89492570278</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e4e</t>
+          <t>67e72c4acde4e8949257067a</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e50</t>
+          <t>67e72c4acde4e8949257067c</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e52</t>
+          <t>67e72c4acde4e8949257067e</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cbd</t>
+          <t>67e72c4acde4e894925704e9</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cb9</t>
+          <t>67e72c4acde4e894925704e5</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cb7</t>
+          <t>67e72c4acde4e894925704e3</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d99</t>
+          <t>67e72c4acde4e894925705c5</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d97</t>
+          <t>67e72c4acde4e894925705c3</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d9b</t>
+          <t>67e72c4acde4e894925705c7</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d9d</t>
+          <t>67e72c4acde4e894925705c9</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356aeb</t>
+          <t>67e72c49cde4e89492570317</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356aed</t>
+          <t>67e72c49cde4e89492570319</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ae9</t>
+          <t>67e72c49cde4e89492570315</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b25</t>
+          <t>67e72c49cde4e89492570351</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b29</t>
+          <t>67e72c49cde4e89492570355</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b0e</t>
+          <t>67e72c49cde4e8949257033a</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b0c</t>
+          <t>67e72c49cde4e89492570338</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356dd2</t>
+          <t>67e72c4acde4e894925705fe</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356dce</t>
+          <t>67e72c4acde4e894925705fa</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356dca</t>
+          <t>67e72c4acde4e894925705f6</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b46</t>
+          <t>67e72c49cde4e89492570372</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b42</t>
+          <t>67e72c49cde4e8949257036e</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b48</t>
+          <t>67e72c49cde4e89492570374</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356b44</t>
+          <t>67e72c49cde4e89492570370</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec2</t>
+          <t>67e72c4bcde4e894925706ee</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec6</t>
+          <t>67e72c4bcde4e894925706f2</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec4</t>
+          <t>67e72c4bcde4e894925706f0</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356ec8</t>
+          <t>67e72c4bcde4e894925706f4</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356ad1</t>
+          <t>67e72c49cde4e894925702fd</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356eef</t>
+          <t>67e72c4bcde4e8949257071b</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356eed</t>
+          <t>67e72c4bcde4e89492570719</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356ef1</t>
+          <t>67e72c4bcde4e8949257071d</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d5c</t>
+          <t>67e72c4acde4e89492570588</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d5e</t>
+          <t>67e72c4acde4e8949257058a</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d75</t>
+          <t>67e72c4acde4e894925705a1</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e6d</t>
+          <t>67e72c4acde4e89492570699</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356d8c</t>
+          <t>67e72c4acde4e894925705b8</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a84</t>
+          <t>67e72c49cde4e894925702b0</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67e036b8454164a56f356a82</t>
+          <t>67e72c49cde4e894925702ae</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f6</t>
+          <t>67e72c49cde4e89492570222</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15424,7 +15424,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f8</t>
+          <t>67e72c49cde4e89492570224</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f2</t>
+          <t>67e72c49cde4e8949257021e</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67e036b7454164a56f3569f4</t>
+          <t>67e72c49cde4e89492570220</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e0a</t>
+          <t>67e72c4acde4e89492570636</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e0c</t>
+          <t>67e72c4acde4e89492570638</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e10</t>
+          <t>67e72c4acde4e8949257063c</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e0e</t>
+          <t>67e72c4acde4e8949257063a</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356df7</t>
+          <t>67e72c4acde4e89492570623</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356df5</t>
+          <t>67e72c4acde4e89492570621</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356cd8</t>
+          <t>67e72c4acde4e89492570504</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e8d</t>
+          <t>67e72c4bcde4e894925706b9</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e95</t>
+          <t>67e72c4bcde4e894925706c1</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e95</t>
+          <t>67e72c4bcde4e894925706c1</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e8f</t>
+          <t>67e72c4bcde4e894925706bb</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17706,7 +17706,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e91</t>
+          <t>67e72c4bcde4e894925706bd</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67e036b9454164a56f356e7c</t>
+          <t>67e72c4bcde4e894925706a8</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f1a</t>
+          <t>67e72c4bcde4e89492570746</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -18195,7 +18195,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f18</t>
+          <t>67e72c4bcde4e89492570744</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f61</t>
+          <t>67e72c4bcde4e8949257078d</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -18521,7 +18521,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f65</t>
+          <t>67e72c4bcde4e89492570791</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357043</t>
+          <t>67e72c4bcde4e8949257086f</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f7a</t>
+          <t>67e72c4bcde4e894925707a6</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356fda</t>
+          <t>67e72c4bcde4e89492570806</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356ff7</t>
+          <t>67e72c4bcde4e89492570823</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19918,7 +19918,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356fe5</t>
+          <t>67e72c4bcde4e89492570811</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357007</t>
+          <t>67e72c4bcde4e89492570833</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f9c</t>
+          <t>67e72c4bcde4e894925707c8</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357019</t>
+          <t>67e72c4bcde4e89492570845</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -20958,7 +20958,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357026</t>
+          <t>67e72c4bcde4e89492570852</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -21121,7 +21121,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356f4c</t>
+          <t>67e72c4bcde4e89492570778</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -21284,7 +21284,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f357036</t>
+          <t>67e72c4bcde4e89492570862</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67e036ba454164a56f356fc2</t>
+          <t>67e72c4bcde4e894925707ee</t>
         </is>
       </c>
       <c r="W133" t="n">
